--- a/Waste/Vermicompost Moisture/vermicompost_moisture_master.xlsx
+++ b/Waste/Vermicompost Moisture/vermicompost_moisture_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Components</t>
   </si>
@@ -138,9 +138,6 @@
     <t>A0 to A0(analogpin on Arduino UNO)</t>
   </si>
   <si>
-    <t>To check the working of the sensors, upload the code attached.</t>
-  </si>
-  <si>
     <t>Connect soil moisture sensors to Arduino UNO</t>
   </si>
   <si>
@@ -165,16 +162,22 @@
     <t>SCL to A5(analog pin on Arduino UNO)</t>
   </si>
   <si>
-    <t>To find the address upload the address sketch.</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Upload the final code</t>
-  </si>
-  <si>
-    <t>Final code</t>
+    <t>To check the working of the sensors, upload code001.</t>
+  </si>
+  <si>
+    <t>Code001</t>
+  </si>
+  <si>
+    <t>Code002</t>
+  </si>
+  <si>
+    <t>To find the address upload code002.</t>
+  </si>
+  <si>
+    <t>Code003</t>
+  </si>
+  <si>
+    <t>Upload code003.</t>
   </si>
 </sst>
 </file>
@@ -772,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>34</v>
@@ -868,15 +871,15 @@
     </row>
     <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -884,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -892,15 +895,15 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -915,17 +918,17 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>50</v>
@@ -936,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4" t="s">
